--- a/data/tweets_favoraveis.xlsx
+++ b/data/tweets_favoraveis.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,11 +555,6 @@
           <t>HistoriaNoPaint</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Contato: historianopaintoficial@gmail.com | Instagram: historianopaintoficial l Tik Tok: historianopaint</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -754,49 +749,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1307469525110063104</t>
+          <t>1308096750054506504</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QuebrandoOTabu</t>
+          <t>MussumAlive</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Por um mundo mais bem informado e menos careta.</t>
+          <t>🏆 Campeão do reality show Bar Aberto | Cocktail Influencer | Creator | publicidade: leandrosantos@dagazinfluencer.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1308096750054506504</t>
+          <t>1307740584334024706</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MussumAlive</t>
+          <t>dominiopop</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>🏆 Campeão do reality show Bar Aberto | Cocktail Influencer | Creator | publicidade: leandrosantos@dagazinfluencer.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1307740584334024706</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>dominiopop</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>Famosos | Moda | Beleza | Comportamento | Política
 A dose diária de conteúdo para a geração que quer mudar o mundo ✨
@@ -804,86 +782,69 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1307532682222473217</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AndreaMPacha</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Antirracista, escritora e magistrada. Autora de A vida não é justa, Segredo de Justiça, Velhos são os outros. Coautora de Sobre Feminismos.</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1307532682222473217</t>
+          <t>1307424457905102849</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AndreaMPacha</t>
+          <t>fabiunascimento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Antirracista, escritora e magistrada. Autora de A vida não é justa, Segredo de Justiça, Velhos são os outros. Coautora de Sobre Feminismos.</t>
+          <t>Perfil oficial da atriz Fabiula Nascimento atualizado pela própria</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1309138017680936960</t>
+          <t>1307329524489691137</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>QuebrandoOTabu</t>
+          <t>Ticostacruz</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Por um mundo mais bem informado e menos careta.</t>
+          <t>Vivão e construindo pontes 🚀</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1307424457905102849</t>
+          <t>1313451910012243970</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fabiunascimento</t>
+          <t>taliriapetrone</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>Perfil oficial da atriz Fabiula Nascimento atualizado pela própria</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1307329524489691137</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ticostacruz</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Vivão e construindo pontes 🚀</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1313451910012243970</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>taliriapetrone</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>☀️ Deputada Federal mais votada da esquerda do RJ
 ✊🏾 Professora de História, negra, feminista, ecossocialista
@@ -891,86 +852,69 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1307316641827520513</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SimoneEhNois</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Co Deputada  Estadual ELEITA da Bancada Feminista do PSOL em SP com 259.771 votos • jornalista pucsp • mestranda usp • coordenadora nacional do MNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1307448318797246464</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Savagefiction</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1307316641827520513</t>
+          <t>1307335314898325507</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SimoneEhNois</t>
+          <t>startupdareal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Co Deputada  Estadual ELEITA da Bancada Feminista do PSOL em SP com 259.771 votos • jornalista pucsp • mestranda usp • coordenadora nacional do MNU</t>
+          <t>Autor de Este livro não vai te deixar rico @PlanetaLivrosBR | contato@startupdareal.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1307448318797246464</t>
+          <t>1307338302836666368</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Savagefiction</t>
+          <t>aanonnyma</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
-        <is>
-          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1310345975198699520</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>QuebrandoOTabu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Por um mundo mais bem informado e menos careta.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1307335314898325507</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>startupdareal</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Autor de Este livro não vai te deixar rico @PlanetaLivrosBR | contato@startupdareal.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1307338302836666368</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>aanonnyma</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>ela/dela BEBA ÁGUA 💧
 apenas uma mulher branca retinta que sonha em ser agiota.
@@ -978,882 +922,843 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1307347188461248513</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AfroSailor</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>assistente social em formação, corrinha fofa da regional V, gaiatice amuado e muito afeto (ele/ela)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1307375424910098432</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lolaescreva</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Professora da UFC, feminista, logicamente de esquerda, blogueira há 14 anos. Tenho tb um canal no YT https://t.co/HoJVP1J6Y5 Ingrata com o patriarcado desde criancinha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1308464269072240647</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LeviKaique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+        </is>
+      </c>
+    </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1307347188461248513</t>
+          <t>1307504298956328960</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AfroSailor</t>
+          <t>tesoureiros</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>assistente social em formação, corrinha fofa da regional V, gaiatice amuado e muito afeto (ele/ela)</t>
+          <t>O internauta da CPI</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1307375424910098432</t>
+          <t>1307348838110433280</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lolaescreva</t>
+          <t>startupdareal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Professora da UFC, feminista, logicamente de esquerda, blogueira há 14 anos. Tenho tb um canal no YT https://t.co/HoJVP1J6Y5 Ingrata com o patriarcado desde criancinha.</t>
+          <t>Autor de Este livro não vai te deixar rico @PlanetaLivrosBR | contato@startupdareal.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1308464269072240647</t>
+          <t>1307314727442427910</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LeviKaique</t>
+          <t>ma_azevedo94</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+          <t>Jornalista na @espnbrasil. Com passagem pela Fox e @BandJornalismo. Mãe do Lucca. Por aqui: opiniões, gracinhas e música. Fã de sol e praia!  Eclesiastes 3:1 ♥️</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1307504298956328960</t>
+          <t>1307384242553446406</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tesoureiros</t>
+          <t>Cauefabiano</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O internauta da CPI</t>
+          <t>Jornalista e repórter na @tvglobo, geralmente no @MaisVoce. Era do @G1, e sou menino do suporte nas horas vagas. Sim, tenho os olhos diferentes.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1307348838110433280</t>
+          <t>1316769287869267968</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>startupdareal</t>
+          <t>hudsonbonatto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Autor de Este livro não vai te deixar rico @PlanetaLivrosBR | contato@startupdareal.com</t>
+          <t>Jornalista, Esp. em Comunicação Digital e Criador de Conteúdo Estratégico. Autor do livro reportagem Doze. Perfil de opiniões pessoais!</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1307314727442427910</t>
+          <t>1307492980127928322</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ma_azevedo94</t>
+          <t>joelluiz_adv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jornalista na @espnbrasil. Com passagem pela Fox e @BandJornalismo. Mãe do Lucca. Por aqui: opiniões, gracinhas e música. Fã de sol e praia!  Eclesiastes 3:1 ♥️</t>
+          <t>📧. joelluiz@institutodpn.org - Advogado/RJ -Jacarezinho - Dir. Executivo @institutodpn - @coalizaonegra  - Fund/Coord NICA - Antiproibicionista - Ele/Dele</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1307384242553446406</t>
+          <t>1307824104742023168</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cauefabiano</t>
+          <t>mariliadf2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jornalista e repórter na @tvglobo, geralmente no @MaisVoce. Era do @G1, e sou menino do suporte nas horas vagas. Sim, tenho os olhos diferentes.</t>
+          <t>Renda Fixa e Economia. Sócia-fundadora da Nord Research. Para receber meu conteúdo inscreva seu email aqui: https://t.co/Kb7ZmsOaC0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1316769287869267968</t>
+          <t>1307340470197071874</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hudsonbonatto</t>
+          <t>franca_rodrigo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jornalista, Esp. em Comunicação Digital e Criador de Conteúdo Estratégico. Autor do livro reportagem Doze. Perfil de opiniões pessoais!</t>
+          <t>Film and theater director, screenwriter, actor and writer. Director  🎬 A cut above - Netflix  🎬 Humor Negro - Globoplay Multishow</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1307492980127928322</t>
+          <t>1307323903308595205</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joelluiz_adv</t>
+          <t>dasilvabenedita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>📧. joelluiz@institutodpn.org - Advogado/RJ -Jacarezinho - Dir. Executivo @institutodpn - @coalizaonegra  - Fund/Coord NICA - Antiproibicionista - Ele/Dele</t>
+          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1307824104742023168</t>
+          <t>1307334335993872384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mariliadf2</t>
+          <t>LeviKaique</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Renda Fixa e Economia. Sócia-fundadora da Nord Research. Para receber meu conteúdo inscreva seu email aqui: https://t.co/Kb7ZmsOaC0</t>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1307340470197071874</t>
+          <t>1313452646095900672</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>franca_rodrigo</t>
+          <t>RMafei</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Film and theater director, screenwriter, actor and writer. Director  🎬 A cut above - Netflix  🎬 Humor Negro - Globoplay Multishow</t>
+          <t>Professor da Faculdade de Direito da USP. Pesquisador do @Laut_br. Autor, 'Como remover um Presidente'. Produtor do canal  📺 e podcast🎙️ Direito e Sociedade.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1307323903308595205</t>
+          <t>1307313283595198464</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dasilvabenedita</t>
+          <t>Neka_BR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
+          <t>Surtando um pouco a cada dia... 😜</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1307334335993872384</t>
+          <t>1308405387717156865</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LeviKaique</t>
+          <t>brunoformiga</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+          <t>Aqui não é delivery de comentário. Eu decido o que eu falo. 🤪 🎬 @tntsportsbr Embaixador @pagbetoficial e @sofascoreBR Comercial: bruno.formiga@galeano.cc</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1313452646095900672</t>
+          <t>1307333189984301056</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RMafei</t>
+          <t>ReTintaPreta</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Professor da Faculdade de Direito da USP. Pesquisador do @Laut_br. Autor, 'Como remover um Presidente'. Produtor do canal  📺 e podcast🎙️ Direito e Sociedade.</t>
+          <t xml:space="preserve">Mestrando em história pela UNIRIO | (Re)pensando a história escrita em "Tinta" "Preta" | Muito Flamengo ❤🖤 | Apaixonado por One Piece ☠</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1307313283595198464</t>
+          <t>1307733641531883520</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Neka_BR</t>
+          <t>Ticostacruz</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Surtando um pouco a cada dia... 😜</t>
+          <t>Vivão e construindo pontes 🚀</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1308405387717156865</t>
+          <t>1313303668712763394</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>brunoformiga</t>
+          <t>danielleonawale</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aqui não é delivery de comentário. Eu decido o que eu falo. 🤪 🎬 @tntsportsbr Embaixador @pagbetoficial e @sofascoreBR Comercial: bruno.formiga@galeano.cc</t>
+          <t>Dona da 7Fios. Procure saber!</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1307333189984301056</t>
+          <t>1311781993743556608</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ReTintaPreta</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mestrando em história pela UNIRIO | (Re)pensando a história escrita em "Tinta" "Preta" | Muito Flamengo ❤🖤 | Apaixonado por One Piece ☠</t>
+          <t>knjcheeks_</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1307733641531883520</t>
+          <t>1307434659182239744</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ticostacruz</t>
+          <t>gaby17pontes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Vivão e construindo pontes 🚀</t>
+          <t>Professora cansada e desesperançosa. Não gosto do povo do twitter, só tenho essa conta porque aqui as notícias correm mais rápido📰</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1313303668712763394</t>
+          <t>1313518835362918400</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>danielleonawale</t>
+          <t>brunnosarttori</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dona da 7Fios. Procure saber!</t>
+          <t>Jornalista • Deepfaker • Roteirista ''Bruxo dos vídeos" - Coelho, Paulo 🧙‍♂️ Assessoria: @jamarcosreal 81 99285-9777 sartori.assessoria(@)https://t.co/rzaXuRr1N0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1311781993743556608</t>
+          <t>1307303965021941763</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>knjcheeks_</t>
+          <t>GabiRAR1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Admiradora da pluralidade humana</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1307434659182239744</t>
+          <t>1307342913366560770</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gaby17pontes</t>
+          <t>Omardeideais</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Professora cansada e desesperançosa. Não gosto do povo do twitter, só tenho essa conta porque aqui as notícias correm mais rápido📰</t>
+          <t>Sou do Morro, do Samba e do Bar.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1313518835362918400</t>
+          <t>1308913921064132608</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>brunnosarttori</t>
+          <t>AdrianaCarranca</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jornalista • Deepfaker • Roteirista ''Bruxo dos vídeos" - Coelho, Paulo 🧙‍♂️ Assessoria: @jamarcosreal 81 99285-9777 sartori.assessoria(@)https://t.co/rzaXuRr1N0</t>
+          <t>Journalist @nytimes @theatlantic @GrantaMag @ForeignPolicy. MSc @LSESocialPolicy, MA @ColumbiaJourn. Awards Overseas Press Club, YbBY, Jabuti, Esso, Líbero etc.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1307303965021941763</t>
+          <t>1307662703641714688</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GabiRAR1</t>
+          <t>luisaciteli</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Admiradora da pluralidade humana</t>
+          <t>@flamengo</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1307342913366560770</t>
+          <t>1307337051256356866</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Omardeideais</t>
+          <t>rogercipo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sou do Morro, do Samba e do Bar.</t>
+          <t>Co-fundei a Denga Love, primeiro app de relacionamentos para pessoas negras, no Brasil. 🧡 BAIXE AI!</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1308913921064132608</t>
+          <t>1307485804453822470</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AdrianaCarranca</t>
+          <t>davidmirandario</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Journalist @nytimes @theatlantic @GrantaMag @ForeignPolicy. MSc @LSESocialPolicy, MA @ColumbiaJourn. Awards Overseas Press Club, YbBY, Jabuti, Esso, Líbero etc.</t>
+          <t>Pai do João, Jonathas e Marcelo 💚 . Deputado Federal. Preto, favelado, primeiro vereador LGBT do RJ, midialivrista e pela causa animal.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1307662703641714688</t>
+          <t>1307376205058932738</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>luisaciteli</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>@flamengo</t>
+          <t>HistoriaNoPaint</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1307337051256356866</t>
+          <t>1307363766535847936</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rogercipo</t>
+          <t>lgqueiroga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Co-fundei a Denga Love, primeiro app de relacionamentos para pessoas negras, no Brasil. 🧡 BAIXE AI!</t>
+          <t>Preto | Creator • Consultor | Esports • Diversidade &amp; Inclusão | @FURIA | Powered by @IntelBrasil | 📧: contato.queiroga@gmail.com | Embaixador @CafeDiPreto ☕️</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1307485804453822470</t>
+          <t>1307300011324178434</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>davidmirandario</t>
+          <t>GabrielCBrasil</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pai do João, Jonathas e Marcelo 💚 . Deputado Federal. Preto, favelado, primeiro vereador LGBT do RJ, midialivrista e pela causa animal.</t>
+          <t>Economist. Energy transition, ESG and climate risk analyst at @control_risks. Views my own.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1307376205058932738</t>
+          <t>1307279120783626242</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HistoriaNoPaint</t>
+          <t>davicalbez</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Contato: historianopaintoficial@gmail.com | Instagram: historianopaintoficial l Tik Tok: historianopaint</t>
+          <t>insta @davicalbez</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1307363766535847936</t>
+          <t>1307347291066560520</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lgqueiroga</t>
+          <t>heroinadolixo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Preto | Creator • Consultor | Esports • Diversidade &amp; Inclusão | @FURIA | Powered by @IntelBrasil | 📧: contato.queiroga@gmail.com | Embaixador @CafeDiPreto ☕️</t>
+          <t>a heroina é apenas um alter-ego onde tenho super poderes. ela/dela</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1307300011324178434</t>
+          <t>1313591435900395521</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GabrielCBrasil</t>
+          <t>gleisi</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Economist. Energy transition, ESG and climate risk analyst at @control_risks. Views my own.</t>
+          <t>Deputada federal pelo Paraná e Presidenta Nacional do Partido dos Trabalhadores ⭐</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1307279120783626242</t>
+          <t>1308021716602556417</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>davicalbez</t>
+          <t>RafaelValim7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>insta @davicalbez</t>
+          <t>Doutor em Direito. Professor Visitante na @officialuom. Diretor do @Ireebr e do @kopebrasil. Editor da @contraeditora. Advogado.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1307756415491112962</t>
+          <t>1313488068045873162</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>QuebrandoOTabu</t>
+          <t>Savagefiction</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Por um mundo mais bem informado e menos careta.</t>
+          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1307347291066560520</t>
+          <t>1307449497178566657</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>heroinadolixo</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>a heroina é apenas um alter-ego onde tenho super poderes. ela/dela</t>
+          <t>Pessoa_Cansada</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1309862793533779970</t>
+          <t>1308214737164013569</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>QuebrandoOTabu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Por um mundo mais bem informado e menos careta.</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1313591435900395521</t>
+          <t>1307704964987473923</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gleisi</t>
+          <t>thiamparo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Deputada federal pelo Paraná e Presidenta Nacional do Partido dos Trabalhadores ⭐</t>
+          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1308021716602556417</t>
+          <t>1307387070781022208</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RafaelValim7</t>
+          <t>fernandapsol</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Doutor em Direito. Professor Visitante na @officialuom. Diretor do @Ireebr e do @kopebrasil. Editor da @contraeditora. Advogado.</t>
+          <t>🏆4ª parlamentar e deputada federal mulher mais bem votada do RS / Obrigada pelos quase 200 mil votos</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1313488068045873162</t>
+          <t>1307345285551587333</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Savagefiction</t>
+          <t>bolsoregrets</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
+          <t>Pegue o medo que você sentiu durante esses 4 anos e dê para o 1° fascista que passar na sua frente. Esse medo agora TEM q ser dele. Co-host do @OsDebocheviques.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1307449497178566657</t>
+          <t>1307328669854162944</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pessoa_Cansada</t>
+          <t>LeviKaique</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1308214737164013569</t>
+          <t>1308075438003163137</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>carolizaaando</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>sem samba não dá</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1307704964987473923</t>
+          <t>1307079116697600002</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>thiamparo</t>
+          <t>srlm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
+          <t>founder: https://t.co/dRezX3Tv2Q, https://t.co/XBZdjugRgR, https://t.co/AOImgfKEj1, https://t.co/CxlJgi9BhW, https://t.co/VaBIuzm9V4, https://t.co/R3qQLbtjJ4.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1307387070781022208</t>
+          <t>1307359008035143680</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fernandapsol</t>
+          <t>LeviKaique</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>🏆4ª parlamentar e deputada federal mulher mais bem votada do RS / Obrigada pelos quase 200 mil votos</t>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1307345285551587333</t>
+          <t>1307571546685353984</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bolsoregrets</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Pegue o medo que você sentiu durante esses 4 anos e dê para o 1° fascista que passar na sua frente. Esse medo agora TEM q ser dele. Co-host do @OsDebocheviques.</t>
+          <t>Rosy_Oliveiira</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1307328669854162944</t>
+          <t>1307741654280015880</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LeviKaique</t>
+          <t>Ticostacruz</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+          <t>Vivão e construindo pontes 🚀</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1308075438003163137</t>
+          <t>1307342921859989504</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>carolizaaando</t>
+          <t>danvieirass</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sem samba não dá</t>
+          <t>Nesse tempo de internet, toda língua é afiada. Insta: @danvieira71</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1307079116697600002</t>
+          <t>1307351567490838528</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>srlm</t>
+          <t>tiamaoficial</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>founder: https://t.co/dRezX3Tv2Q, https://t.co/XBZdjugRgR, https://t.co/AOImgfKEj1, https://t.co/CxlJgi9BhW, https://t.co/VaBIuzm9V4, https://t.co/R3qQLbtjJ4.</t>
+          <t>Resistindo e sorrindo!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1307359008035143680</t>
+          <t>1307457967495798792</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LeviKaique</t>
+          <t>dasilvabenedita</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1307571546685353984</t>
+          <t>1314192687353024512</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rosy_Oliveiira</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1307741654280015880</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Ticostacruz</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Vivão e construindo pontes 🚀</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1307342921859989504</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>danvieirass</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Nesse tempo de internet, toda língua é afiada. Insta: @danvieira71</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1307351567490838528</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>tiamaoficial</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Resistindo e sorrindo!</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>1307457967495798792</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>dasilvabenedita</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1314192687353024512</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
           <t>taliriapetrone</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>☀️ Deputada Federal mais votada da esquerda do RJ
 ✊🏾 Professora de História, negra, feminista, ecossocialista
@@ -1861,344 +1766,325 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1309638922138456065</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>jpgadelhaof</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A Fazenda 12 || The Cicle Brasil Netflix || A Ilha dos Famosos</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1307281105788207109</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>jojopancada</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ser de esquerda é ter uma posição filosófica perante a vida, onde a solidariedade prevalece sobre o egoísmo. (José Mujica)
+#LulaPresidente2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1307846790968991750</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>soutamires_sp</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>⭐️ Advogada, feminista negra, autora do livro Código Oculto. Diretora do @inst_lula ✊🏿</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1307586607537631232</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>luziel__</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>🌹</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1313640923864141824</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>thiamparo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
+        </is>
+      </c>
+    </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1309638922138456065</t>
+          <t>1313269819064479744</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jpgadelhaof</t>
+          <t>soutoverso</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A Fazenda 12 || The Cicle Brasil Netflix || A Ilha dos Famosos</t>
+          <t>Advogado. esquerda. Podcaster (@PapoSouto). Dono da https://t.co/FZbv1jogKw IG e TikTok: @soutoverso. Contato: merodissabor@gmail.com 📩</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1307281105788207109</t>
+          <t>1307649090784833537</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jojopancada</t>
+          <t>Sen_Cristovam</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ser de esquerda é ter uma posição filosófica perante a vida, onde a solidariedade prevalece sobre o egoísmo. (José Mujica)
-#LulaPresidente2022</t>
+          <t>Professor e polemista.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1307846790968991750</t>
+          <t>1307849032098869248</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>soutamires_sp</t>
+          <t>pestodeboldo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>⭐️ Advogada, feminista negra, autora do livro Código Oculto. Diretora do @inst_lula ✊🏿</t>
+          <t>Black man, antiracist lawyer. Não há democracia sem igualdade racial. Idealizador do @ProjetoRespire</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1307586607537631232</t>
+          <t>1308099621483352067</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>luziel__</t>
+          <t>LeonelRadde</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>🌹</t>
+          <t>Deputado Estadual Eleito, Vereador POA (PT), Policial Civil, 25 🦂⚡(COT), Aikidoka, vegetariano, Zen Budista.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1313640923864141824</t>
+          <t>1307314622408654851</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>thiamparo</t>
+          <t>levieiraprof</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
+          <t>professor nas horas vagas.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1313269819064479744</t>
+          <t>1313665694849028096</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>soutoverso</t>
+          <t>andrefran</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Advogado. esquerda. Podcaster (@PapoSouto). Dono da https://t.co/FZbv1jogKw IG e TikTok: @soutoverso. Contato: merodissabor@gmail.com 📩</t>
+          <t>🌎 Jornalista | Diretor I Apresentador | Viajante #NaoContaLaEmCasa #QueMundoEEsse #MemeExplica...</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1307649090784833537</t>
+          <t>1308232544110903296</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sen_Cristovam</t>
+          <t>caduadv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Professor e polemista.</t>
+          <t>Pretos, sejam LIVRES! A mudança vem da mente. Sem vitimismo e coitadismo.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1307849032098869248</t>
+          <t>1307374324823851009</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pestodeboldo</t>
+          <t>FellerMarcelo</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Black man, antiracist lawyer. Não há democracia sem igualdade racial. Idealizador do @ProjetoRespire</t>
+          <t>Advogado criminal, inquieto, incomodado. Da turma dos direitos humanos. 🏳‍🌈</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1308099621483352067</t>
+          <t>1307091972683894787</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LeonelRadde</t>
+          <t>andrefatala</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Deputado Estadual Eleito, Vereador POA (PT), Policial Civil, 25 🦂⚡(COT), Aikidoka, vegetariano, Zen Budista.</t>
+          <t>husband and dad / mountain biker / fan of @corinthians / heavy metal lover / vp platforms @magazineluiza</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1307314622408654851</t>
+          <t>1307991171185156099</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>levieiraprof</t>
+          <t>MarceloUchoa_</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>professor nas horas vagas.</t>
+          <t>Advogado em @uchoaadv,  Professor na @uniforcomunica, Youtube Marcelo Uchôa ‘Direito e Política’  (vide link). Fascismo não. 👊🏾🚩</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1313665694849028096</t>
+          <t>1307457430243160071</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>andrefran</t>
+          <t>chambzrs</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>🌎 Jornalista | Diretor I Apresentador | Viajante #NaoContaLaEmCasa #QueMundoEEsse #MemeExplica...</t>
+          <t>a vida e a obra de tales chambzrs.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1308055009544765440</t>
+          <t>1307722171695931392</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MidiaNINJA</t>
+          <t>EstreLaaany</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Narrativas Independentes, Jornalismo e Ação. 
-•
- 👇🏾👇🏾👇🏾</t>
+          <t>• Mãe do Ravi ☀️ • Escrevo poemas • Faço desenhos fofinhos • Futura prof Lany • Reclamações diárias</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1308232544110903296</t>
+          <t>1307454950574882826</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>caduadv</t>
+          <t>TeresaCristina</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pretos, sejam LIVRES! A mudança vem da mente. Sem vitimismo e coitadismo.</t>
+          <t>Cantora e compositora carioca ✨ Agenciamento: artur@ffentretenimento.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1307374324823851009</t>
+          <t>1307578616256045057</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FellerMarcelo</t>
+          <t>edufelipe101</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
-        <is>
-          <t>Advogado criminal, inquieto, incomodado. Da turma dos direitos humanos. 🏳‍🌈</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1307091972683894787</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>andrefatala</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>husband and dad / mountain biker / fan of @corinthians / heavy metal lover / vp platforms @magazineluiza</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1307991171185156099</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>MarceloUchoa_</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Advogado em @uchoaadv,  Professor na @uniforcomunica, Youtube Marcelo Uchôa ‘Direito e Política’  (vide link). Fascismo não. 👊🏾🚩</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1307457430243160071</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>chambzrs</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>a vida e a obra de tales chambzrs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1307722171695931392</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>EstreLaaany</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>• Mãe do Ravi ☀️ • Escrevo poemas • Faço desenhos fofinhos • Futura prof Lany • Reclamações diárias</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>1307454950574882826</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TeresaCristina</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Cantora e compositora carioca ✨ Agenciamento: artur@ffentretenimento.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>1307578616256045057</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>edufelipe101</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>Mudo de humor como troca os minutos 
 Geminiano e é isso
@@ -2206,292 +2092,292 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1308207293650083841</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>michelpinho</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Historiador e um sujeito que ama Belém.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1307671520047759360</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>agrdeumsm</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Eu sou perturbadinha das ideia, estudo design e
+&amp; reclamo da vida. // artista não praticante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1307362177494454279</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SamPancher</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Jornalista retratando a realidade distópica no @metropoles Contato: sampancher7@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1307106261209681922</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>heelobrandao</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cabeça fria, coração quente 💚🤍</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1307347290399617025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>marcogomes</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1307324845387022341</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>dasilvabenedita</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
+        </is>
+      </c>
+    </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1308207293650083841</t>
+          <t>1307378539449245696</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>michelpinho</t>
+          <t>tiamaoficial</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Historiador e um sujeito que ama Belém.</t>
+          <t>Resistindo e sorrindo!</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1307671520047759360</t>
+          <t>1307334216640794624</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>agrdeumsm</t>
+          <t>anacarla_abrao</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Eu sou perturbadinha das ideia, estudo design e
-&amp; reclamo da vida. // artista não praticante.</t>
+          <t>Economista. Goiana de raiz e de coração. Adotada por São Paulo. Head da Oliver Wyman no Brasil.  Melhor parte de mim: meus 4 filhos ❤️</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1307362177494454279</t>
+          <t>1307377564936216576</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SamPancher</t>
+          <t>luyarafranco</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Jornalista retratando a realidade distópica no @metropoles Contato: sampancher7@gmail.com</t>
+          <t>22 anos, mulher preta periférica, funkeira, flamenguista, integrante da diretoria do IMF e estudante de ed. física. @inst_marielle</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1307106261209681922</t>
+          <t>1307607603107762178</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>heelobrandao</t>
+          <t>patriers</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>cabeça fria, coração quente 💚🤍</t>
+          <t>Jornalista. Radialista. Mãe da Anastácia. Apaixonada por viagens, cinema, teatro e literatura. A mais romântica fã de histórias realistas. (Adoro uma ironia!!)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1307347290399617025</t>
+          <t>1308458378604220416</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>marcogomes</t>
+          <t>cinefilo_K</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
+          <t>quando cheguei aqui, o twiter já era metrópole. montei meu barraco com muito sarcasmo e fiquei. SIGA SEM DÓ. todo dia tem #DicaDeFilme e mortandela.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1307324845387022341</t>
+          <t>1307362705171451904</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>dasilvabenedita</t>
+          <t>iamKalera</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
+          <t>Ela/dela | Powered by @FURIA ⭐#UbisoftStarPlayer | tenho um charm no Rainbow 6 | Redes: https://t.co/0mJU5oYFFu kaleracontato@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1307378539449245696</t>
+          <t>1307457103821500417</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tiamaoficial</t>
+          <t>jhonpaim15</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Resistindo e sorrindo!</t>
+          <t>Moods aleatórios kk🤡♥️
+Insta: @jhonpaim</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1307334216640794624</t>
+          <t>1308796838900895747</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>anacarla_abrao</t>
+          <t>afrocrente</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Economista. Goiana de raiz e de coração. Adotada por São Paulo. Head da Oliver Wyman no Brasil.  Melhor parte de mim: meus 4 filhos ❤️</t>
+          <t>Articulador @perifaconnect ▪️Coordenação Nacional do Movimento Negro Evangélico▪️Teologia (Unida)▪️Jornalismo (Unicap)▪️Conselheiro @fogocruzado</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1307377564936216576</t>
+          <t>1307329969337577472</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>luyarafranco</t>
+          <t>thiamparo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>22 anos, mulher preta periférica, funkeira, flamenguista, integrante da diretoria do IMF e estudante de ed. física. @inst_marielle</t>
+          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1307607603107762178</t>
+          <t>1307493423478386689</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>patriers</t>
+          <t>franca_rodrigo</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Jornalista. Radialista. Mãe da Anastácia. Apaixonada por viagens, cinema, teatro e literatura. A mais romântica fã de histórias realistas. (Adoro uma ironia!!)</t>
+          <t>Film and theater director, screenwriter, actor and writer. Director  🎬 A cut above - Netflix  🎬 Humor Negro - Globoplay Multishow</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1308458378604220416</t>
+          <t>1307051953738977280</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cinefilo_K</t>
+          <t>passalanorh</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
-        <is>
-          <t>quando cheguei aqui, o twiter já era metrópole. montei meu barraco com muito sarcasmo e fiquei. SIGA SEM DÓ. todo dia tem #DicaDeFilme e mortandela.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1307362705171451904</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>iamKalera</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Ela/dela | Powered by @FURIA ⭐#UbisoftStarPlayer | tenho um charm no Rainbow 6 | Redes: https://t.co/0mJU5oYFFu kaleracontato@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>1307457103821500417</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>jhonpaim15</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Moods aleatórios kk🤡♥️
-Insta: @jhonpaim</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>1308796838900895747</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>afrocrente</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Articulador @perifaconnect ▪️Coordenação Nacional do Movimento Negro Evangélico▪️Teologia (Unida)▪️Jornalismo (Unicap)▪️Conselheiro @fogocruzado</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>1307329969337577472</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>thiamparo</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1307493423478386689</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>franca_rodrigo</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Film and theater director, screenwriter, actor and writer. Director  🎬 A cut above - Netflix  🎬 Humor Negro - Globoplay Multishow</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>1307051953738977280</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>passalanorh</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>Ela/Dela/She/Her
 ✊🏾Pessoas | Tecnologia | Diversidade, Equidade &amp; Inclusão 
@@ -2501,104 +2387,104 @@
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>1307507950802612224</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>GabineteOcio</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Disseminando informação e deboche e combatendo fake news.
 Se inscreva no nosso canal no Telegram: https://t.co/6QuAfbQjbA</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>1314413218152972291</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Nailahnv</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Nailah Neves • Consultora de Inteligência Eleitoral • Cientista Política • ela/dela • Ìyàwó ty Ọ̀ṣun • Contato profissional: nailah.relgov@gmail.com</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>1313631638983761921</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>thiamparo</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>OPINIÕES PESSOAIS 🌈 Adv. Prof @fgvdireitosp @fgvri Colunista @folha PhD @ceuhungary Visiting Scholar @columbia. Post-Doctoral Global Fellow @nyulaw.Ele/Dele</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>1307651261584609283</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>sigaoflavio</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Professor de Direito Constitucional. Não estou à venda, mas meu livro está: https://t.co/skyogNqTK0</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>1308151253541752833</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>sunamita_nobre</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Andressa Vianna✨❤️</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>1307720267834232833</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>pbdjulia</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>@flamengo 🔴⚫ || @selenagomez || 21 she/her
 *gay drama* *tdah sadness* 
@@ -2606,18 +2492,18 @@
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>1309478235680526338</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>TarcisoRenova</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Professional Poker Player.
 Fundador da desativada RenovaMídia.
@@ -2625,105 +2511,105 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>1307315744032657413</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>jaoseupimenta</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Humorista e roteirista. Você me assiste no Porta dos Fundos / Instagram: @ joaoseupimenta. Ingressos pros meus shows 👇🏾</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>1307352094245040128</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>hospicio_brasil</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>@ mas faz.</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>1307489558985138183</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>potenciasnegras</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Coletivo Potências Negras</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>1307362101334286336</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>TigerGames</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Gamer, apaixonado por tecnologia.
  ✉Jobs : contatotiger@hotmail.com</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>1309541981178269697</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>TatiNefertari</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Graduanda em Pedagogia - USP, ajuda a construir a Biblioteca Comunitária Assata Shakur @BibAssataShakur | Ela/Dela. 
 tatinefertari@digitalfavela.com.br</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>1307348559189155840</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>HeslaineVieira</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Atriz
 Ellen em Malhação Viva a Diferença/ As five
@@ -2732,53 +2618,53 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>1307355750583472133</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>livialaranjeira</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Repórter na @tvglobo e @SporTV 📺  Falo sobre esportes, feminismo e o que mais der na telha.</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>1313150629053902849</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Crissy_98_</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Conta dedicada às minhas séries, livros, filmes e personagens favoritos ✨ • Disney • PJO • The Selection • LiS 🦋
 {ela/dela}</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>1307431510719553540</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>profsosa13</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Prof e Me em Ensino da História; petista; LGBTQ+; colorado; portelense.
  Faço parte  dos  50,90%
@@ -2786,35 +2672,35 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>1308433609435623429</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>religiaosincera</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>levando Axe em forma de humor,porém sempre respeitando o sagrado!</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>1307709759458553856</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>passalanorh</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Ela/Dela/She/Her
 ✊🏾Pessoas | Tecnologia | Diversidade, Equidade &amp; Inclusão 
@@ -2824,303 +2710,303 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1308168789570269184</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>marioadolfo</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Jornalista. Editor do Blog do Mário Adolfo e do @infotodahora. Contato: marioadolfo@blogdomarioadolfo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1308008801874907137</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>esquerdeando</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Escrevo coisas e alguns deboches. Estou aqui por novas amizades, politica, falar de poesia e flores, com pitadas de escândalos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1307421354669617154</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>gdoweber</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Soteropolitano. Torcedor do Esquadrão de Aço. Ex-procurador da Fazenda Nacional. Juiz de Direito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1308141632475332609</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>joaofelipenobre</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>•sonhador profissional •contador de histórias •lutador da paz e TDAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1307378006818779136</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ticostacruz</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Vivão e construindo pontes 🚀</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1307379001976070152</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>eueoyoon</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>•°•. for youth 一 vou levantar não importa quantas vezes eu caia... você pode descansar quando estiver difícil .•°•</t>
+        </is>
+      </c>
+    </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1308168789570269184</t>
+          <t>1307823804337586176</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>marioadolfo</t>
+          <t>_rosaneborges</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Jornalista. Editor do Blog do Mário Adolfo e do @infotodahora. Contato: marioadolfo@blogdomarioadolfo.com.br</t>
+          <t>Jornalista, professora universitária, articulista da Revista Istoé, coordenadora da Escola Online Longa (https://t.co/1mSo2bDgH5). Autora de diversos livros.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1308008801874907137</t>
+          <t>1310609266181627906</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>esquerdeando</t>
+          <t>anunesrocha</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Escrevo coisas e alguns deboches. Estou aqui por novas amizades, politica, falar de poesia e flores, com pitadas de escândalos.</t>
+          <t>Jornalista, colunista e comentarista do Uol Esporte. 
+Facebook: https://t.co/6fgqJzAi9p…</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1307421354669617154</t>
+          <t>1307274719171956736</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>gdoweber</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Soteropolitano. Torcedor do Esquadrão de Aço. Ex-procurador da Fazenda Nacional. Juiz de Direito.</t>
+          <t>oviniporto</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1308141632475332609</t>
+          <t>1307765342505238529</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>joaofelipenobre</t>
+          <t>desisalg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>•sonhador profissional •contador de histórias •lutador da paz e TDAH</t>
+          <t>Professora de Direito Constitucional e Eleitoral.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1307378006818779136</t>
+          <t>1307845851348447233</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ticostacruz</t>
+          <t>MariluPamc</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vivão e construindo pontes 🚀</t>
+          <t>Se não luta, ao menos tenha a decência de respeitar aqueles que o fazem. 🤝 ✊ Cientista Política, integrante do diretório municipal do Psol #RevoluçãoSolidária</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1307379001976070152</t>
+          <t>1307663297408311300</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>eueoyoon</t>
+          <t>isantanax</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>•°•. for youth 一 vou levantar não importa quantas vezes eu caia... você pode descansar quando estiver difícil .•°•</t>
+          <t>Doutor em Direito. Advogado da @educafrobrasil, colunista do @JornalOGlobo. Consultor jurídico do @EuSouLivres. Presidente da CIR-OAB/SP</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1307823804337586176</t>
+          <t>1307673781561954306</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>_rosaneborges</t>
+          <t>buerolol</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Jornalista, professora universitária, articulista da Revista Istoé, coordenadora da Escola Online Longa (https://t.co/1mSo2bDgH5). Autora de diversos livros.</t>
+          <t>https://t.co/kQBkBOVC6q Business: contatobuerinho@gmail.com @rivalrylolbr https://t.co/sqseSmNMA5 cupom de 100 de bônus : BUERO100</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1310609266181627906</t>
+          <t>1313288448271360001</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>anunesrocha</t>
+          <t>souljazzca</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Jornalista, colunista e comentarista do Uol Esporte. 
-Facebook: https://t.co/6fgqJzAi9p…</t>
+          <t>a oficial</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1307274719171956736</t>
+          <t>1307328078939664385</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>oviniporto</t>
+          <t>realodara</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ativista multifacetada / agitadora cultural 🏳️‍🌈 &amp; tuiteira/ a chata mais legal que você vai conhecer @houseoforiccibrasil🦉</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1307765342505238529</t>
+          <t>1317577715185295365</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>desisalg</t>
+          <t>livrosdodrii</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Professora de Direito Constitucional e Eleitoral.</t>
+          <t>🤙🏽</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1307845851348447233</t>
+          <t>1308028158726287367</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MariluPamc</t>
+          <t>jfmathias</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Se não luta, ao menos tenha a decência de respeitar aqueles que o fazem. 🤝 ✊ Cientista Política, integrante do diretório municipal do Psol #RevoluçãoSolidária</t>
+          <t>Economics, Associate Professor (UFRJ) https://t.co/RjMVpCQpxX</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1307663297408311300</t>
+          <t>1307727245092499461</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>isantanax</t>
+          <t>afro_hey</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
-        <is>
-          <t>Doutor em Direito. Advogado da @educafrobrasil, colunista do @JornalOGlobo. Consultor jurídico do @EuSouLivres. Presidente da CIR-OAB/SP</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>1307673781561954306</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>buerolol</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>https://t.co/kQBkBOVC6q Business: contatobuerinho@gmail.com @rivalrylolbr https://t.co/sqseSmNMA5 cupom de 100 de bônus : BUERO100</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>1313288448271360001</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>souljazzca</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>a oficial</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>1307328078939664385</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>realodara</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>ativista multifacetada / agitadora cultural 🏳️‍🌈 &amp; tuiteira/ a chata mais legal que você vai conhecer @houseoforiccibrasil🦉</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>1317577715185295365</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>livrosdodrii</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>🤙🏽</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>1308028158726287367</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>jfmathias</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Economics, Associate Professor (UFRJ) https://t.co/RjMVpCQpxX</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>1307727245092499461</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>afro_hey</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>Atleta Profissional e Streamer
 Partner: @tropicaosGG - @WakandaStreamer - @Dt3Sports - @IntelBrasil
@@ -3129,137 +3015,137 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1307705250074243079</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>wendy_andrade</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://t.co/wtCMYETPFQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1307449947579731974</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>barretonessa</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Fã de Nicola Tesla. Defendo o SUS. Esse perfil apoia os povos originários. Dia 30/10 é 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1308523689013583872</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>albertocalmeida</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cientista Político. Autor de A cabeça do brasileiro, A cabeça do eleitor, e O voto do brasileiro. Análise política baseada em informações, fatos, precedentes...</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1307327976653164546</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LeviKaique</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1308234010129301505</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>vanessasoaresc4</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Lulista</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1309493296339746816</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>marcogomes</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
+        </is>
+      </c>
+    </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1307705250074243079</t>
+          <t>1307827958061690881</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>wendy_andrade</t>
+          <t>dasilvabenedita</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://t.co/wtCMYETPFQ</t>
+          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1307449947579731974</t>
+          <t>1307451420174675978</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>barretonessa</t>
+          <t>mayrasigwalt</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
-        <is>
-          <t>Fã de Nicola Tesla. Defendo o SUS. Esse perfil apoia os povos originários. Dia 30/10 é 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>1308523689013583872</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>albertocalmeida</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Cientista Político. Autor de A cabeça do brasileiro, A cabeça do eleitor, e O voto do brasileiro. Análise política baseada em informações, fatos, precedentes...</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>1307327976653164546</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>LeviKaique</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>1308234010129301505</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>vanessasoaresc4</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Lulista</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>1309493296339746816</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>marcogomes</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>1307827958061690881</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>dasilvabenedita</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Reeleita Deputada Federal pelo PT/RJ. Sou mulher negra, da favela, na luta contra a desigualdade e o racismo no Rio e no Brasil.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>1307451420174675978</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>mayrasigwalt</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>Sã înh jamã ra tîn ke vê
 Ela
@@ -3271,173 +3157,173 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1312910423465889793</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>waltermoraes_</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>desde 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1307328502920810497</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>lucas_kurz</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Repórter no @diariopopularRS
+🗞️ –  Internacional | ManCity</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1307803966810525696</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>andersonsenaxxp</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>📍Salvador-Ba /Baiano/ Rubro Negro/Sagitariano
+#lula2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1308104661891776512</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>jaciarabri</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Do norte do Brasil, onde o frete nunca é grátis, morando na capital do BR. De humor duvidoso, ama café e cerveja. Humanista não praticante, do bem quando dá.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1308060359371165699</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LianaCirne</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Vereadora do Recife. Professora UFPE. Doutora em Direito. Colunista Fórum e Brasil 247. Mãe atípica do Pedro. Ecofeminista.1a Suplente Deputada Federal PT. TDAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1307072246377259012</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cris_Barbieri</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Cristiane Barbieri é jornalista de Economia e Negócios no @Estadao</t>
+        </is>
+      </c>
+    </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1312910423465889793</t>
+          <t>1307375861327429635</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>waltermoraes_</t>
+          <t>jennieyees</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>desde 2018.</t>
+          <t>Eu não ligo nem pra a minha opinião, imagina pra a sua</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1307328502920810497</t>
+          <t>1307252742067564544</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>lucas_kurz</t>
+          <t>AliQuintiliano</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Repórter no @diariopopularRS
-🗞️ –  Internacional | ManCity</t>
+          <t>♈ RDJ - A Macumba da Nêga é boa : Bela, Recatada &amp; do laroyê !!! Make Lula President Again. Monitorado pelo meu Psicólogo e pelo meu advogado</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1307803966810525696</t>
+          <t>1307315904808652800</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>andersonsenaxxp</t>
+          <t>Nailahnv</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>📍Salvador-Ba /Baiano/ Rubro Negro/Sagitariano
-#lula2022</t>
+          <t>Nailah Neves • Consultora de Inteligência Eleitoral • Cientista Política • ela/dela • Ìyàwó ty Ọ̀ṣun • Contato profissional: nailah.relgov@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1308104661891776512</t>
+          <t>1307534758814126080</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>jaciarabri</t>
+          <t>passarosErosas</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
-        <is>
-          <t>Do norte do Brasil, onde o frete nunca é grátis, morando na capital do BR. De humor duvidoso, ama café e cerveja. Humanista não praticante, do bem quando dá.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>1308060359371165699</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>LianaCirne</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Vereadora do Recife. Professora UFPE. Doutora em Direito. Colunista Fórum e Brasil 247. Mãe atípica do Pedro. Ecofeminista.1a Suplente Deputada Federal PT. TDAH</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>1307072246377259012</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Cris_Barbieri</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Cristiane Barbieri é jornalista de Economia e Negócios no @Estadao</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>1307375861327429635</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>jennieyees</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Eu não ligo nem pra a minha opinião, imagina pra a sua</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>1307252742067564544</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>AliQuintiliano</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>♈ RDJ - A Macumba da Nêga é boa : Bela, Recatada &amp; do laroyê !!! Make Lula President Again. Monitorado pelo meu Psicólogo e pelo meu advogado</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>1307315904808652800</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Nailahnv</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Nailah Neves • Consultora de Inteligência Eleitoral • Cientista Política • ela/dela • Ìyàwó ty Ọ̀ṣun • Contato profissional: nailah.relgov@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>1307534758814126080</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>passarosErosas</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>Sapatão, feminista, ateia.
 Fã de rock, coração à esquerda, sangue vermelho.
@@ -3446,355 +3332,355 @@
         </is>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1307523944422006787</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>brauneoficial</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Jornalista. De Teresópolis pro mundo. daniel.braune@play9.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1307484682162974720</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>tesoureiros</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>O internauta da CPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1309414015358177280</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>emirsader</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>man, from brazil, researcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1313460532050042882</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>blckklucas</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>por aqui muita reclamação, contradição e ludmilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1308973790949519362</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>jojopancada</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ser de esquerda é ter uma posição filosófica perante a vida, onde a solidariedade prevalece sobre o egoísmo. (José Mujica)
+#LulaPresidente2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1307346187658256386</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>rogercipo</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Co-fundei a Denga Love, primeiro app de relacionamentos para pessoas negras, no Brasil. 🧡 BAIXE AI!</t>
+        </is>
+      </c>
+    </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1307523944422006787</t>
+          <t>1307495300664303616</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>brauneoficial</t>
+          <t>Bebeto_Esposito</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Jornalista. De Teresópolis pro mundo. daniel.braune@play9.com.br</t>
+          <t>Libriano, distraído, besta.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1307484682162974720</t>
+          <t>1307349969033203712</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>tesoureiros</t>
+          <t>felip0c</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>O internauta da CPI</t>
+          <t>Um louco, um deus, um feiticeiro</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1309414015358177280</t>
+          <t>1307702646824935426</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>emirsader</t>
+          <t>donairene13</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>man, from brazil, researcher</t>
+          <t>contato: donairene013@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1313460532050042882</t>
+          <t>1307305206040985603</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>blckklucas</t>
+          <t>geekcom2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>por aqui muita reclamação, contradição e ludmilla</t>
+          <t>Aqui tem software livre, PHP e diversidade de opiniões pessoais.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1308973790949519362</t>
+          <t>1307363330886193152</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>marcogomes</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1308030754325176320</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sen_Cristovam</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Professor e polemista.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1313660127912906752</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>JaumGodoy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Roteirista de animação. Esquisito. CEO de nada. Pai de gatos. Habitante do Castelo de Grayskull. ✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1307710200921624576</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>oBrunoRomano</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Comediante</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1308109881203920906</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sonia_Cout_</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1308768740629192714</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sucubus</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>'Eppur si muove’! Psicóloga clinicando em Botafogo. Adendo: Flamenguista, Mangueirense, apaixonada pelo Baiana System e filha de Ogum. Salve!</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1307674548767260672</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>jojopancada</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Ser de esquerda é ter uma posição filosófica perante a vida, onde a solidariedade prevalece sobre o egoísmo. (José Mujica)
 #LulaPresidente2022</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>1307346187658256386</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>rogercipo</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Co-fundei a Denga Love, primeiro app de relacionamentos para pessoas negras, no Brasil. 🧡 BAIXE AI!</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>1307495300664303616</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Bebeto_Esposito</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Libriano, distraído, besta.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>1307349969033203712</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>felip0c</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Um louco, um deus, um feiticeiro</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>1307702646824935426</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>donairene13</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>contato: donairene013@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>1307305206040985603</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>geekcom2</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Aqui tem software livre, PHP e diversidade de opiniões pessoais.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>1307363330886193152</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>marcogomes</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>nerd da periferia: gama df. chief information officer. fundei boo-box, sp, venda 2015 👾 ex-PLTR NY. conselheiro: jovem nerd; ribon; transparência internacional</t>
-        </is>
-      </c>
-    </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1308030754325176320</t>
+          <t>1307407049127612416</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sen_Cristovam</t>
+          <t>refugefefo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Professor e polemista.</t>
+          <t>eu &amp; ele abraçadinhos ouvindo alan walker. 🌞</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1313660127912906752</t>
+          <t>1307384121543585792</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>JaumGodoy</t>
+          <t>Joao_Gini</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Roteirista de animação. Esquisito. CEO de nada. Pai de gatos. Habitante do Castelo de Grayskull. ✨</t>
+          <t>A vida é muito curta para ser levada tão a sério.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1307710200921624576</t>
+          <t>1307702350832971776</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oBrunoRomano</t>
+          <t>SirLucasMatheus</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Comediante</t>
+          <t>Falo sobre coisas que ninguém perguntou por aqui e manda Jobs 📧 lukasm14@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1308109881203920906</t>
+          <t>1307412845689270272</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sonia_Cout_</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>1308768740629192714</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Sucubus</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>'Eppur si muove’! Psicóloga clinicando em Botafogo. Adendo: Flamenguista, Mangueirense, apaixonada pelo Baiana System e filha de Ogum. Salve!</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>1307674548767260672</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>jojopancada</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Ser de esquerda é ter uma posição filosófica perante a vida, onde a solidariedade prevalece sobre o egoísmo. (José Mujica)
-#LulaPresidente2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>1307407049127612416</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>refugefefo</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>eu &amp; ele abraçadinhos ouvindo alan walker. 🌞</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>1307384121543585792</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Joao_Gini</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>A vida é muito curta para ser levada tão a sério.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>1307702350832971776</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>SirLucasMatheus</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Falo sobre coisas que ninguém perguntou por aqui e manda Jobs 📧 lukasm14@hotmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>1307412845689270272</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
           <t>lapena</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Humorista de águas abertas, ator e autor.
 Co-owner (with @johntextor) of Botafogo 
@@ -3804,121 +3690,121 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1307467505959612417</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>souljazzca</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>a oficial</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1307605009341784065</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>eurickrodrigues</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Negro, Gay, Politizado, Progressista, defensor dos 3M (MONAS, MINAS E MANOS), Turismólogo, Publicitário, Sagitariano em constante construção. #forabolsonaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1307383326152548355</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>evandrof</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Co-apresentador do @99vidas. Quase 13 anos produzindo podcast. É tempo hein! As vezes posto foto de comidas bonitas. Contato ⬇️</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1307373205091487745</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>AeroportoD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Um pouco de humor, historia e zoação sobre esse caos que chamamos de aviação. Sinta-se em casa.
+Contato: contatoaerodepre@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1307383316061057025</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>evandrof</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Co-apresentador do @99vidas. Quase 13 anos produzindo podcast. É tempo hein! As vezes posto foto de comidas bonitas. Contato ⬇️</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1307403355761905671</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Iberedias</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Direitos de crianças e adolescentes /🎵 Toco baixo e penso alto /🏃🏽- 10km 35:29 (Porto Alegre 14), Meia 1:17:28 (Berlim 13), Maratona 2:44:39 (Berlim 14)</t>
+        </is>
+      </c>
+    </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1307467505959612417</t>
+          <t>1308001914009907207</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>souljazzca</t>
+          <t>florapaulita</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
-        <is>
-          <t>a oficial</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>1307605009341784065</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>eurickrodrigues</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Negro, Gay, Politizado, Progressista, defensor dos 3M (MONAS, MINAS E MANOS), Turismólogo, Publicitário, Sagitariano em constante construção. #forabolsonaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>1307383326152548355</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>evandrof</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Co-apresentador do @99vidas. Quase 13 anos produzindo podcast. É tempo hein! As vezes posto foto de comidas bonitas. Contato ⬇️</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>1307373205091487745</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>AeroportoD</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Um pouco de humor, historia e zoação sobre esse caos que chamamos de aviação. Sinta-se em casa.
-Contato: contatoaerodepre@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>1307383316061057025</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>evandrof</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Co-apresentador do @99vidas. Quase 13 anos produzindo podcast. É tempo hein! As vezes posto foto de comidas bonitas. Contato ⬇️</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>1307403355761905671</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Iberedias</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Direitos de crianças e adolescentes /🎵 Toco baixo e penso alto /🏃🏽- 10km 35:29 (Porto Alegre 14), Meia 1:17:28 (Berlim 13), Maratona 2:44:39 (Berlim 14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>1308001914009907207</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>florapaulita</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
         <is>
           <t>ela/dela 
 dubladora, diretora de dublagem e comentarista de reality show nas horas vagas
@@ -3926,18 +3812,18 @@
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>1307380584742871042</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>dz7king</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Streamer at @twitch | 
 Partners @intelbrasil | @NvidiaGeforceBR | @DT3sports | @ExeedMe | @GamersClubcs 
@@ -3945,105 +3831,105 @@
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>1307650246776938497</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>danibacedo</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>penso.. logo penso que existo - Recicles e não Descartes.</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>1307382615876472833</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Daniel07091992</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Gt: Daniel bueno90
 Id: Daniel_bueno90</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>1307456354441990144</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>jonasdiandrade</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Coordenador do Portal de Notícias do @vozdacomunidade, professor, ativista, comunicador e escritor.
 E-mail: jonas@vozdascomunidades.com.br</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>1307333035596165121</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>beatxriz</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>um metro e sessenta de puro perigo</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>1308460596900356097</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>jgprates</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>👨🏼‍🏫Professor Universitário. 📚Mestre em Direito. 👔Advogado. 🏙Gestão Pública. ⚽️VP do @americafcto. ✊🏾🗣Desabafo no @politiqueijo</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>1314540960173436929</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>afroestima2</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Administrador📈|
 Mestrando em Antropologia 📚|
@@ -4052,18 +3938,18 @@
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>1307650223615991808</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>mailsonmcj</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>-Baiano, Advogado                                                                   
 Quando cheguei aqui era tudo mato
@@ -4071,246 +3957,246 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1307620462722199552</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>gamerpobre12344</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>apenas um jovem gamer de 14 anos</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1307403030535471104</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ChicaoBulhoes</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Secretário de Desenvolvimento Econômico do Rio • Líder @eusoulivres @raps_brasil • Vamos juntos transformar o Rio! •</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1307307682303541248</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FamosoLucas_</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>📹 | Produtor de Vídeos &amp; Designer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1308081186716241922</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>allisonaw1965</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>O tempo sabe de algumas coisas que eu não sei...</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1307316660320325634</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SimoneEhNois</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Co Deputada  Estadual ELEITA da Bancada Feminista do PSOL em SP com 259.771 votos • jornalista pucsp • mestranda usp • coordenadora nacional do MNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1307506001806008321</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>jgprates</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>👨🏼‍🏫Professor Universitário. 📚Mestre em Direito. 👔Advogado. 🏙Gestão Pública. ⚽️VP do @americafcto. ✊🏾🗣Desabafo no @politiqueijo</t>
+        </is>
+      </c>
+    </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1307620462722199552</t>
+          <t>1308002930373603328</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>gamerpobre12344</t>
+          <t>orlandoguerreir</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>apenas um jovem gamer de 14 anos</t>
+          <t>Artista. Filho da Izabel e do José, casado com a Rubene. Filiado ao Partido dos Trabalhadores. Nascido em São Vicente.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1307403030535471104</t>
+          <t>1307092048739282951</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ChicaoBulhoes</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Secretário de Desenvolvimento Econômico do Rio • Líder @eusoulivres @raps_brasil • Vamos juntos transformar o Rio! •</t>
+          <t>AndreGomesF</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1307307682303541248</t>
+          <t>1307426354661675008</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FamosoLucas_</t>
+          <t>luclsluiz</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>📹 | Produtor de Vídeos &amp; Designer.</t>
+          <t>Professor de geografia na rede pública em S. Caetano do Sul. Pai do Vicente.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1308081186716241922</t>
+          <t>1307769047350734853</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>allisonaw1965</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>O tempo sabe de algumas coisas que eu não sei...</t>
+          <t>rafhaelnep</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1307316660320325634</t>
+          <t>1307383771541450752</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SimoneEhNois</t>
+          <t>observint</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Co Deputada  Estadual ELEITA da Bancada Feminista do PSOL em SP com 259.771 votos • jornalista pucsp • mestranda usp • coordenadora nacional do MNU</t>
+          <t>Migração, Geopolítica, Direitos Humanos, Mudanças Climáticas e mais</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1307506001806008321</t>
+          <t>1307272283849994243</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>jgprates</t>
+          <t>Legurbano</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>👨🏼‍🏫Professor Universitário. 📚Mestre em Direito. 👔Advogado. 🏙Gestão Pública. ⚽️VP do @americafcto. ✊🏾🗣Desabafo no @politiqueijo</t>
+          <t>Sou raio, relâmpago e trovão</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1308002930373603328</t>
+          <t>1313533756167409667</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>orlandoguerreir</t>
+          <t>joelluiz_adv</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Artista. Filho da Izabel e do José, casado com a Rubene. Filiado ao Partido dos Trabalhadores. Nascido em São Vicente.</t>
+          <t>📧. joelluiz@institutodpn.org - Advogado/RJ -Jacarezinho - Dir. Executivo @institutodpn - @coalizaonegra  - Fund/Coord NICA - Antiproibicionista - Ele/Dele</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1307092048739282951</t>
+          <t>1307736857980153857</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>AndreGomesF</t>
+          <t>JeGiacometInda</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Fotógrafa, dançarina amadora de Macarena, colecionadora de ranços, faísca atrasada. https://t.co/7rtj1vZq5n</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1307426354661675008</t>
+          <t>1307425935453454337</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>luclsluiz</t>
+          <t>OManoRogerio</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
-        <is>
-          <t>Professor de geografia na rede pública em S. Caetano do Sul. Pai do Vicente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>1307769047350734853</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>rafhaelnep</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>1307383771541450752</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>observint</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Migração, Geopolítica, Direitos Humanos, Mudanças Climáticas e mais</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>1307272283849994243</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Legurbano</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Sou raio, relâmpago e trovão</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>1313533756167409667</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>joelluiz_adv</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>📧. joelluiz@institutodpn.org - Advogado/RJ -Jacarezinho - Dir. Executivo @institutodpn - @coalizaonegra  - Fund/Coord NICA - Antiproibicionista - Ele/Dele</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>1307736857980153857</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>JeGiacometInda</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Fotógrafa, dançarina amadora de Macarena, colecionadora de ranços, faísca atrasada. https://t.co/7rtj1vZq5n</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>1307425935453454337</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>OManoRogerio</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
         <is>
           <t>Poeta preto paulistano
 Literatura, Filmes, Séries e Cultura em geral.
@@ -4319,220 +4205,220 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1307516805695578115</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>antonionetopdt</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Presidente do @pdtsaopaulo e da @csbbrasil• Marido, Pai e Avô. 
+Filie-se ao @pdtsaopaulo pelo link 👇</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1309629115843129344</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>EuSouLivres</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Defendemos a liberdade por inteiro com informação de qualidade, formação de lideranças e apoio a reformas. Escolha ser Livres!</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1307464058162077696</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>srlm</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>founder: https://t.co/dRezX3Tv2Q, https://t.co/XBZdjugRgR, https://t.co/AOImgfKEj1, https://t.co/CxlJgi9BhW, https://t.co/VaBIuzm9V4, https://t.co/R3qQLbtjJ4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1307145761960927233</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>joaooribeiro26</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Assessor de Investimentos, Carioca e Vascaíno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1313488075830497285</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Savagefiction</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1307485971487830016</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>brunnosarttori</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Jornalista • Deepfaker • Roteirista ''Bruxo dos vídeos" - Coelho, Paulo 🧙‍♂️ Assessoria: @jamarcosreal 81 99285-9777 sartori.assessoria(@)https://t.co/rzaXuRr1N0</t>
+        </is>
+      </c>
+    </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1307516805695578115</t>
+          <t>1307350675290980354</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>antonionetopdt</t>
+          <t>drikbarbosa</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Presidente do @pdtsaopaulo e da @csbbrasil• Marido, Pai e Avô. 
-Filie-se ao @pdtsaopaulo pelo link 👇</t>
+          <t>Rapper • Cantora • Compositora 🎵 comercial@laboratoriofantasma.com</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1309629115843129344</t>
+          <t>1308438620366348291</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>EuSouLivres</t>
+          <t>realodara</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Defendemos a liberdade por inteiro com informação de qualidade, formação de lideranças e apoio a reformas. Escolha ser Livres!</t>
+          <t>ativista multifacetada / agitadora cultural 🏳️‍🌈 &amp; tuiteira/ a chata mais legal que você vai conhecer @houseoforiccibrasil🦉</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1307464058162077696</t>
+          <t>1307530451595255809</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>srlm</t>
+          <t>Pablo_Peixoto</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>founder: https://t.co/dRezX3Tv2Q, https://t.co/XBZdjugRgR, https://t.co/AOImgfKEj1, https://t.co/CxlJgi9BhW, https://t.co/VaBIuzm9V4, https://t.co/R3qQLbtjJ4.</t>
+          <t>Jornalista, mestrado em sociologia da cultura, arqueólogo do Século XX e o Youtuber que mais trabalha no Brasil.
+🌽Contato: qu4trocoisas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1307145761960927233</t>
+          <t>1307128173910544390</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>joaooribeiro26</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Assessor de Investimentos, Carioca e Vascaíno.</t>
+          <t>buruaca</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1313488075830497285</t>
+          <t>1313990051584446464</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Savagefiction</t>
+          <t>takemeout</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Escritor Afrofuturista, Finalista do Jabuti 2020 e 2022,  Finalista do CCXP Awards, 50 mais criativos pela Wired Festival e Podcast @InfiltradosNC</t>
+          <t>✨ ilustradora porradeira ✨ designer witch ✨
+icon por @pcaricchio</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1307485971487830016</t>
+          <t>1313842414759686146</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>brunnosarttori</t>
+          <t>monica_benicio</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Jornalista • Deepfaker • Roteirista ''Bruxo dos vídeos" - Coelho, Paulo 🧙‍♂️ Assessoria: @jamarcosreal 81 99285-9777 sartori.assessoria(@)https://t.co/rzaXuRr1N0</t>
+          <t>Vereadora do Rio (PSOL). Arquiteta e mestra em urbanismo, cria da Maré, militante de DH e direito à cidade, lésbica e feminista. monicabenicioagenda@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1307350675290980354</t>
+          <t>1307382250124779521</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>drikbarbosa</t>
+          <t>RicardoWeber</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
-        <is>
-          <t>Rapper • Cantora • Compositora 🎵 comercial@laboratoriofantasma.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>1308438620366348291</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>realodara</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>ativista multifacetada / agitadora cultural 🏳️‍🌈 &amp; tuiteira/ a chata mais legal que você vai conhecer @houseoforiccibrasil🦉</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>1307530451595255809</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Pablo_Peixoto</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Jornalista, mestrado em sociologia da cultura, arqueólogo do Século XX e o Youtuber que mais trabalha no Brasil.
-🌽Contato: qu4trocoisas@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>1307128173910544390</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>buruaca</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>1313990051584446464</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>takemeout</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>✨ ilustradora porradeira ✨ designer witch ✨
-icon por @pcaricchio</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>1313842414759686146</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>monica_benicio</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Vereadora do Rio (PSOL). Arquiteta e mestra em urbanismo, cria da Maré, militante de DH e direito à cidade, lésbica e feminista. monicabenicioagenda@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>1307382250124779521</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>RicardoWeber</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
         <is>
           <t>Meu voto é Lula!  Defendo o SUS antes de ser moda! 
 Casado há 19 anos e cristão!
@@ -4541,69 +4427,69 @@
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>1307358470895788032</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>eenrietti</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>@bayzgg | Entrei no mundo dos NFTs e estou apaixonado nisso. Para contatos profissionais: dunoxx@bayz.gg</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>1313268490984476674</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>soutoverso</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Advogado. esquerda. Podcaster (@PapoSouto). Dono da https://t.co/FZbv1jogKw IG e TikTok: @soutoverso. Contato: merodissabor@gmail.com 📩</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>1308202635539951616</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>BrunoCostoli</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>Sou Ex-BBB. Não lembra de mim? Essa é a prova. // https://t.co/YvS76RTNmi Vídeos de stand up no meu youtube: 👇🏽👇🏽</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>1307315764228165633</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>teeaggo</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>entender não é concordar.
 🥱
@@ -4611,336 +4497,336 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1307313636793294848</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>naty_andradde</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Jornalista do @onzeminas e trabalhando na cobertura olímpica no @dibradoras https://t.co/AlOMTgIRA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1307332173150683137</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>gabrielzep</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Python Web Developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1307347660597334019</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>mota97fm</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Radialista 🎤🎙produtor e integrante do Melhor Programa de Futebol do Brasil - @estadio97fm na @energia97fm 💥</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1307334873967927296</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>LeviKaique</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1309844787625947137</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>erahsfeliz</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Sigam @teiadospovos. Educação, luta dos povos, história, agroecologia. Por terra e território para os povos. Insta @erahsfeliz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1307701683196174340</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>desconstrunutri</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Sou Nutricionista (+ o Brasil me obrigou a me tornar Sanitarista) e Doutoranda em Saúde Coletiva. Pesquiso e luto para que você mude o mundo, não o seu corpo✊🏽</t>
+        </is>
+      </c>
+    </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1307313636793294848</t>
+          <t>1308157103333429248</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>naty_andradde</t>
+          <t>ovictorjame</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Jornalista do @onzeminas e trabalhando na cobertura olímpica no @dibradoras https://t.co/AlOMTgIRA6</t>
+          <t>blackboyjunior🫶🏾</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1307332173150683137</t>
+          <t>1307674188388462593</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>gabrielzep</t>
+          <t>juliamolusco7</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Python Web Developer</t>
+          <t>Já fui gótica e emo, hoje estudo pra concurso e assim sigo triste.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1307347660597334019</t>
+          <t>1307599311136583685</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>mota97fm</t>
+          <t>omgerva</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Radialista 🎤🎙produtor e integrante do Melhor Programa de Futebol do Brasil - @estadio97fm na @energia97fm 💥</t>
+          <t>Basicamente falar sobre política e Grêmio.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1307334873967927296</t>
+          <t>1307405418680004613</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LeviKaique</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Palestrante, Eng.Civil, Professor, Creator, Diretor @oretalho, Streamer | Bi 💙💜💖 | Campinas/São Paulo | Parcerias via DM ou e-mail: levikaique@gaiah.ag</t>
+          <t>gobletofpjo</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1309844787625947137</t>
+          <t>1307382962699284480</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>erahsfeliz</t>
+          <t>eusamantalima</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Sigam @teiadospovos. Educação, luta dos povos, história, agroecologia. Por terra e território para os povos. Insta @erahsfeliz.</t>
+          <t>de alma pura e mente confusa</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1307701683196174340</t>
+          <t>1307310211481337857</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>desconstrunutri</t>
+          <t>bea_brazx</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Sou Nutricionista (+ o Brasil me obrigou a me tornar Sanitarista) e Doutoranda em Saúde Coletiva. Pesquiso e luto para que você mude o mundo, não o seu corpo✊🏽</t>
+          <t>A BRAZ. Aqui é bagunçado, mas tem gerência. Falo besteira e divulgo festa. Sou menina da pecuária, mas nunca vi um boi ao vivo.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1308157103333429248</t>
+          <t>1306999823757979650</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ovictorjame</t>
+          <t>slc_cavalcante</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>blackboyjunior🫶🏾</t>
+          <t>QUERO CANTAR PRO MUNDO INTEIRO A ALEGRIA DE SER RUBRO-NEGRO @Flamengo❤️🖤</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1307674188388462593</t>
+          <t>1307317839032877066</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>juliamolusco7</t>
+          <t>kauancoellho</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Já fui gótica e emo, hoje estudo pra concurso e assim sigo triste.</t>
+          <t>🌊 Carioca | 🔮 Virginiano | 🎓 ADM | 📺 Louco por realities e cultura Geek/Pop</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1307599311136583685</t>
+          <t>1313541629186387969</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>omgerva</t>
+          <t>medoedeliriobr</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Basicamente falar sobre política e Grêmio.</t>
+          <t>O diário do governo verde-oliva, essa bad trip escrota em q a gente se meteu. Podcast (link abaixo) &amp; demais links (https://t.co/Y7lByyL8w6).</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1307405418680004613</t>
+          <t>1307621065393397760</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>gobletofpjo</t>
+          <t>adalto_edno</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A evolução acontece a todo instante em que descobrimos que o aprendizado não tem fim.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1307382962699284480</t>
+          <t>1313470154710409220</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>eusamantalima</t>
+          <t>tainadepaularj</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>de alma pura e mente confusa</t>
+          <t>Vereadora do Rio de Janeiro pelo Partido dos Trabalhadores e das Trabalhadoras |🤱🏿 Mãe 📐 Arquiteta e Urbanista</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1307310211481337857</t>
+          <t>1307311928465915906</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>bea_brazx</t>
+          <t>SawaraKali</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>A BRAZ. Aqui é bagunçado, mas tem gerência. Falo besteira e divulgo festa. Sou menina da pecuária, mas nunca vi um boi ao vivo.</t>
+          <t>38|♈♊|preta|bancária|marketeira|cantora|feminista e corinthiana. A favor da democracia e anti-bolsonarista. #Existir e #Resistir 💪🏾👊🏾✊🏾</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1306999823757979650</t>
+          <t>1317293022938365954</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>slc_cavalcante</t>
+          <t>jaoseupimenta</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>QUERO CANTAR PRO MUNDO INTEIRO A ALEGRIA DE SER RUBRO-NEGRO @Flamengo❤️🖤</t>
+          <t>Humorista e roteirista. Você me assiste no Porta dos Fundos / Instagram: @ joaoseupimenta. Ingressos pros meus shows 👇🏾</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1307317839032877066</t>
+          <t>1309176299148247047</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>kauancoellho</t>
+          <t>Sybylla_</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
-        <is>
-          <t>🌊 Carioca | 🔮 Virginiano | 🎓 ADM | 📺 Louco por realities e cultura Geek/Pop</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>1313541629186387969</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>medoedeliriobr</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>O diário do governo verde-oliva, essa bad trip escrota em q a gente se meteu. Podcast (link abaixo) &amp; demais links (https://t.co/Y7lByyL8w6).</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>1307621065393397760</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>adalto_edno</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>A evolução acontece a todo instante em que descobrimos que o aprendizado não tem fim.</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>1313470154710409220</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>tainadepaularj</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Vereadora do Rio de Janeiro pelo Partido dos Trabalhadores e das Trabalhadoras |🤱🏿 Mãe 📐 Arquiteta e Urbanista</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>1307311928465915906</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>SawaraKali</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>38|♈♊|preta|bancária|marketeira|cantora|feminista e corinthiana. A favor da democracia e anti-bolsonarista. #Existir e #Resistir 💪🏾👊🏾✊🏾</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>1317293022938365954</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>jaoseupimenta</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Humorista e roteirista. Você me assiste no Porta dos Fundos / Instagram: @ joaoseupimenta. Ingressos pros meus shows 👇🏾</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>1309176299148247047</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Sybylla_</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
         <is>
           <t>Fã do futuro e da ficção científica | Capitã da Frota Estelar | ela/dela
 Autora de Deixe as Estrelas Falarem. 🌌
@@ -4948,18 +4834,18 @@
         </is>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t>1307341117197889544</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>mdmdaiane</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>⚧️ Streamer na @TwitchBR
 📩: mdmdaiane@gmail.com
@@ -4967,290 +4853,290 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1307485743841980416</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Flavio_Sampaio</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Fluminense Football Club! FORA BOLSONARO!</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1307426128961904647</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>_nelsoncezar</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>quando cheguei já tava assim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1313550541478297606</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Tiagoonie</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>alguém sozinho a cismar - Belchior</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1307423588367163392</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1cesgusto</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>🇧🇷🇳🇬 Brasileiro-nigeriano, integrante do @pontalancapdl colecionador de camisas de time e o - importante, advogado. SCCP/Milan graças ao pai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1307395189955268610</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>cruz_elianalves</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Jornalista, escritora, roteirista, autora dos romances Água de barrela, O crime do cais do Valongo, Nada digo de ti, que em ti não veja e Solitária ela/ella/she</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1314766523475558400</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>nathali20044244</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>cristã com orgulho 🙏</t>
+        </is>
+      </c>
+    </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1307485743841980416</t>
+          <t>1309977414659911680</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Flavio_Sampaio</t>
+          <t>souarthurlima</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Fluminense Football Club! FORA BOLSONARO!</t>
+          <t>Dentista | Fundador da @AfroSaude |🏆 Forbes Under 30 - 2020 |🏆 Mipad 100 (@mipad100) - 2020 | Jobs: arthurlima@brunch.ag</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1307426128961904647</t>
+          <t>1308021464201924614</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>_nelsoncezar</t>
+          <t>FredLAFernandes</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>quando cheguei já tava assim.</t>
+          <t>Médico Pneumologista com foco em doença pulmonar avançada e tratamento de tabagismo. Contra o autoritarismo e negacionismo científico.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1313550541478297606</t>
+          <t>1307479100605562886</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tiagoonie</t>
+          <t>soutamires_sp</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>alguém sozinho a cismar - Belchior</t>
+          <t>⭐️ Advogada, feminista negra, autora do livro Código Oculto. Diretora do @inst_lula ✊🏿</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1307423588367163392</t>
+          <t>1307509893872713728</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1cesgusto</t>
+          <t>ago_almeida</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>🇧🇷🇳🇬 Brasileiro-nigeriano, integrante do @pontalancapdl colecionador de camisas de time e o - importante, advogado. SCCP/Milan graças ao pai.</t>
+          <t>♪ Se você quer me seguir, não é seguro... ♫</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1307395189955268610</t>
+          <t>1307344578442399745</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>cruz_elianalves</t>
+          <t>guirocha82</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Jornalista, escritora, roteirista, autora dos romances Água de barrela, O crime do cais do Valongo, Nada digo de ti, que em ti não veja e Solitária ela/ella/she</t>
+          <t>respeito muito minhas lágrimas, mas ainda mais minha risada</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1314766523475558400</t>
+          <t>1308087876492627968</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>nathali20044244</t>
+          <t>profaflavia</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>cristã com orgulho 🙏</t>
+          <t>Professora de Direito Administrativo e Previdenciário exclusiva do Damásio. Corintiana fanática!! Cantora que ainda será descoberta!!</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1309977414659911680</t>
+          <t>1307759693654261764</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>souarthurlima</t>
+          <t>ashleymlia</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Dentista | Fundador da @AfroSaude |🏆 Forbes Under 30 - 2020 |🏆 Mipad 100 (@mipad100) - 2020 | Jobs: arthurlima@brunch.ag</t>
+          <t>profissional da área de reclamação</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1308021464201924614</t>
+          <t>1307473279544897536</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FredLAFernandes</t>
+          <t>talitismo</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Médico Pneumologista com foco em doença pulmonar avançada e tratamento de tabagismo. Contra o autoritarismo e negacionismo científico.</t>
+          <t>Advogada sem paciência. Concurseira por ódio. Gratidão!</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1307479100605562886</t>
+          <t>1309682705454510080</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>soutamires_sp</t>
+          <t>hilde_angel</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>⭐️ Advogada, feminista negra, autora do livro Código Oculto. Diretora do @inst_lula ✊🏿</t>
+          <t>Todos os domingos, das 10h ao meio-dia, no Bom Dia da TV 247, no YouTube, ao lado dos gdes jornalistas Leo Attuch, Florestan Fernandes e Rodrigo Vianna.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1307509893872713728</t>
+          <t>1311999005707120640</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ago_almeida</t>
+          <t>llcncl</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>♪ Se você quer me seguir, não é seguro... ♫</t>
+          <t>me olhe respeite e aceite porque na hora do atraque eu puxo meu estilete</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1307344578442399745</t>
+          <t>1308059256718004226</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>guirocha82</t>
+          <t>bragacamila1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
-        <is>
-          <t>respeito muito minhas lágrimas, mas ainda mais minha risada</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>1308087876492627968</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>profaflavia</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Professora de Direito Administrativo e Previdenciário exclusiva do Damásio. Corintiana fanática!! Cantora que ainda será descoberta!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>1307759693654261764</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>ashleymlia</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>profissional da área de reclamação</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>1307473279544897536</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>talitismo</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Advogada sem paciência. Concurseira por ódio. Gratidão!</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>1309682705454510080</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>hilde_angel</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Todos os domingos, das 10h ao meio-dia, no Bom Dia da TV 247, no YouTube, ao lado dos gdes jornalistas Leo Attuch, Florestan Fernandes e Rodrigo Vianna.</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>1311999005707120640</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>llcncl</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>me olhe respeite e aceite porque na hora do atraque eu puxo meu estilete</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>1308059256718004226</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>bragacamila1</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
         <is>
           <t>👩🏻‍🏫Historiadora, leitora, professora e feminista. 🗂Fui pesquisadora da Comissão da Verdade.</t>
         </is>
